--- a/biology/Botanique/Plateau_des_poètes_(Béziers)/Plateau_des_poètes_(Béziers).xlsx
+++ b/biology/Botanique/Plateau_des_poètes_(Béziers)/Plateau_des_poètes_(Béziers).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plateau_des_po%C3%A8tes_(B%C3%A9ziers)</t>
+          <t>Plateau_des_poètes_(Béziers)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le plateau des poètes est un jardin à l'anglaise créé à la fin du XIXe siècle à Béziers, dans le prolongement de la promenade qui traverse le centre de la ville, les « allées Paul Riquet ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plateau_des_po%C3%A8tes_(B%C3%A9ziers)</t>
+          <t>Plateau_des_poètes_(Béziers)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été aménagé par les architectes paysagistes Denis et Eugène Bühler, sur un terrain en forte pente situé à l'extrémité orientale de la promenade qui traverse le centre de la ville, aujourd'hui baptisée « allées Paul Riquet ». Le nom du jardin, « plateau des Poètes », ferait référence à l'ancien tertre recouvert d'arbres et propice à la méditation poétique. Plus sûrement, le terme fait référence à la présence de nombreuses statues dans le parc, statues dédiées aux poètes autochtones. Une autre version fait provenir le nom du parc de l'œuvre de Maffre Ermengaud, poète biterrois, auteur d'un Bréviaire d'Amour en 1288.
 Eugène Bühler est, avec son frère, le créateur du parc de la Tête d'Or à Lyon. Les travaux d'aménagements du plateau des Poètes débutent en 1863. 
-Le jardin est inauguré en 1867[1]. Planté de nombreux arbres, d'essences rares ou exotiques, il couvre une superficie de cinq hectares. Dans les années qui suivent, un lac artificiel est créé, ainsi que des bassins d'eau et des sentiers, en pente et sinueux, qui serpentent entre les différentes parties du jardin. L'ensemble est clôturé par des grilles en fer forgé et les portes principales du jardin ouvrent sur la gare, en contrebas, et les allées Paul Riquet, en haut du parc.
-En août 1902, le jardin est orné des bustes de poètes nés à Béziers. La plupart sont des œuvres du sculpteur biterrois Injalbert. Elles représentent Maffre Ermengaud, Jean-Pons-Guillaume Viennet, Paul-Bernard Rozier, Jacques et Gabriel Azaïs, Benjamin Fabre, mais aussi Jean Laurès dit Lou Campestre[2] et Victor Hugo. On y trouve aussi des œuvres sculptées par Jean Magrou. Une statue d'Émile Barthe, signée J-G. Roustan, a été édifiée après le décès de l'écrivain.
+Le jardin est inauguré en 1867. Planté de nombreux arbres, d'essences rares ou exotiques, il couvre une superficie de cinq hectares. Dans les années qui suivent, un lac artificiel est créé, ainsi que des bassins d'eau et des sentiers, en pente et sinueux, qui serpentent entre les différentes parties du jardin. L'ensemble est clôturé par des grilles en fer forgé et les portes principales du jardin ouvrent sur la gare, en contrebas, et les allées Paul Riquet, en haut du parc.
+En août 1902, le jardin est orné des bustes de poètes nés à Béziers. La plupart sont des œuvres du sculpteur biterrois Injalbert. Elles représentent Maffre Ermengaud, Jean-Pons-Guillaume Viennet, Paul-Bernard Rozier, Jacques et Gabriel Azaïs, Benjamin Fabre, mais aussi Jean Laurès dit Lou Campestre et Victor Hugo. On y trouve aussi des œuvres sculptées par Jean Magrou. Une statue d'Émile Barthe, signée J-G. Roustan, a été édifiée après le décès de l'écrivain.
 C'est Injalbert qui est l'auteur des statues les plus importantes du plateau des poètes : la monumentale « Fontaine du Titan » représente Atlas portant le poids du monde, en bronze, sur une représentation du dieu Pan crachant des eaux. Cette statue d'une hauteur totale de 17 mètres avec son socle rocheux est inaugurée en 1892. Injalbert a aussi créé la vasque du bassin de « L'enfant au poisson ». Dans la partie basse du jardin, une œuvre monumentale accueille les voyageurs qui sortent de la gare : le monument aux morts de la ville entouré de hautes et riches grilles ouvragées, dont l'inauguration fut présidée par le maréchal Joffre en 1925.
 Il manque à ce jour le buste de Charles Guéret, poète biterrois, auteur des deux triomphes en 1910.
 Jean Moulin, enfant de Béziers, a son monument dans la partie supérieure du jardin. En 1951, le sculpteur Marcel Courbier édifia un monument en calcaire blanc, sobre, aux lignes pures, représentant un personnage masculin, nu, adossé à une grande plaque, et portant, sur ses genoux, un sabre.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plateau_des_po%C3%A8tes_(B%C3%A9ziers)</t>
+          <t>Plateau_des_poètes_(Béziers)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Visite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Heures d'ouverture : de 7 heures à 18 heures (21 heures en été).
 La Fontaine du Titan.
@@ -558,7 +574,7 @@
 L'Enfant au poisson.
 Statue d'Injalbert d'une grande finesse située au centre d'un vaste parterre d'eau.
 Les bustes des poètes.
-Maffre Ermengaud, moine franciscain et troubadour biterrois mort en 1322, auteur du « Bréviaire d'Amour » en 1288, Joseph-Bernard Rosier, auteur dramatique biterrois (1798-1880), Jean-Pons-Guillaume Viennet académicien biterrois (1777-1868), constituant le premier ensemble (1902) d'Injalbert ; groupe suivi de Jacques Azaïs, avocat et médecin biterrois cofondateur de la Société Archéologique, Scientifique et Littéraire de Béziers (1778-1856) et Gabriel Azaïs, son fils, philologue de langue d'Oc et poète (1805-1888), également d'Injalbert (1904) ; Jean Laurès (Jan en littérature), poète de langue d'Oc auteur de « Lou Campestre »[2] (1822-1902), buste de Jacques Louis Villeneuve (1906) ; Benjamin Fabre (1832-1911), poète de langue d'Oc et cofondateur de la Société Archéologique, Scientifique et Littéraire de Béziers (1832-1911), buste d'Injhalbert (1923) ; cet ensemble fut augmenté plus tardivement par un Victor Hugo de Jean Magrou installé vers 1945 (?) ; Émile Barthe, journaliste, auteur et poète de langue d'Oc, Majoral du Félibrige (1874-1939), par J.-G. Roustan (1975) ; Jeanne Barthès, auteur dramatique (1898-1972), par A. Roques (2011) ; Jean Bonnicel, poète (1920-1971), par Olivier Delobel (2016) ; en fin Frédéric Prat, poète (1895-1915), par David Léger (2018).
+Maffre Ermengaud, moine franciscain et troubadour biterrois mort en 1322, auteur du « Bréviaire d'Amour » en 1288, Joseph-Bernard Rosier, auteur dramatique biterrois (1798-1880), Jean-Pons-Guillaume Viennet académicien biterrois (1777-1868), constituant le premier ensemble (1902) d'Injalbert ; groupe suivi de Jacques Azaïs, avocat et médecin biterrois cofondateur de la Société Archéologique, Scientifique et Littéraire de Béziers (1778-1856) et Gabriel Azaïs, son fils, philologue de langue d'Oc et poète (1805-1888), également d'Injalbert (1904) ; Jean Laurès (Jan en littérature), poète de langue d'Oc auteur de « Lou Campestre » (1822-1902), buste de Jacques Louis Villeneuve (1906) ; Benjamin Fabre (1832-1911), poète de langue d'Oc et cofondateur de la Société Archéologique, Scientifique et Littéraire de Béziers (1832-1911), buste d'Injhalbert (1923) ; cet ensemble fut augmenté plus tardivement par un Victor Hugo de Jean Magrou installé vers 1945 (?) ; Émile Barthe, journaliste, auteur et poète de langue d'Oc, Majoral du Félibrige (1874-1939), par J.-G. Roustan (1975) ; Jeanne Barthès, auteur dramatique (1898-1972), par A. Roques (2011) ; Jean Bonnicel, poète (1920-1971), par Olivier Delobel (2016) ; en fin Frédéric Prat, poète (1895-1915), par David Léger (2018).
 Le monument aux morts.
 Œuvre de Jean-Antoine Injalbert, inaugurée en 1925, à l'entrée basse du parc, donnant en face de la gare ferroviaire.
 Le monument à Jean Moulin.
